--- a/data/小田急電鉄.xlsx
+++ b/data/小田急電鉄.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihiro\Desktop\研究室\研究\私鉄\小田急電鉄\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fukushige\Desktop\git\station_data_visualization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24895D5D-16C5-4B1A-9E00-CCEFE89642B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10840" windowHeight="3880"/>
+    <workbookView xWindow="1100" yWindow="1180" windowWidth="14400" windowHeight="7510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -877,10 +886,6 @@
     <t>http://www.yokohama-sharyo.co.jp/corporate.html</t>
   </si>
   <si>
-    <t xml:space="preserve">  東海自動車株式会社</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>静岡県伊東市渚町2-28</t>
   </si>
   <si>
@@ -1046,10 +1051,6 @@
     <t>東京都新宿区西新宿１丁目８番３号</t>
   </si>
   <si>
-    <t xml:space="preserve">  株式会社　アドベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>神奈川県平塚市榎木町１-１１</t>
   </si>
   <si>
@@ -1192,12 +1193,20 @@
   </si>
   <si>
     <t>https://job.mynavi.jp/21/pc/search/corp88773/outline.html</t>
+  </si>
+  <si>
+    <t>東海自動車株式会社</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社　アドベル</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1563,11 +1572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2385,297 +2394,297 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" t="s">
         <v>180</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>181</v>
-      </c>
-      <c r="C39" t="s">
-        <v>182</v>
       </c>
       <c r="D39" t="s">
         <v>175</v>
       </c>
       <c r="E39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F39" t="s">
         <v>183</v>
-      </c>
-      <c r="F39" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" t="s">
         <v>185</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>186</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>188</v>
+      </c>
+      <c r="E40" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" t="s">
         <v>187</v>
-      </c>
-      <c r="D40" t="s">
-        <v>189</v>
-      </c>
-      <c r="E40" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
         <v>191</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" t="s">
         <v>192</v>
       </c>
-      <c r="C41" t="s">
+      <c r="G41" t="s">
         <v>194</v>
-      </c>
-      <c r="D41" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" t="s">
-        <v>190</v>
-      </c>
-      <c r="F41" t="s">
-        <v>193</v>
-      </c>
-      <c r="G41" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C42">
         <v>57.7</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" t="s">
         <v>201</v>
-      </c>
-      <c r="B43" t="s">
-        <v>202</v>
       </c>
       <c r="C43">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" t="s">
         <v>203</v>
-      </c>
-      <c r="F43" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
         <v>205</v>
-      </c>
-      <c r="B44" t="s">
-        <v>206</v>
       </c>
       <c r="C44" t="s">
         <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" t="s">
         <v>208</v>
       </c>
-      <c r="B45" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" t="s">
         <v>209</v>
-      </c>
-      <c r="D45" t="s">
-        <v>189</v>
-      </c>
-      <c r="E45" t="s">
-        <v>211</v>
-      </c>
-      <c r="F45" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
+        <v>212</v>
+      </c>
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" t="s">
+        <v>215</v>
+      </c>
+      <c r="F46" t="s">
         <v>213</v>
-      </c>
-      <c r="B46" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" t="s">
-        <v>217</v>
-      </c>
-      <c r="D46" t="s">
-        <v>215</v>
-      </c>
-      <c r="E46" t="s">
-        <v>216</v>
-      </c>
-      <c r="F46" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
         <v>219</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
+        <v>214</v>
+      </c>
+      <c r="E47" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" t="s">
+        <v>221</v>
+      </c>
+      <c r="G47" t="s">
         <v>220</v>
-      </c>
-      <c r="C47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D47" t="s">
-        <v>215</v>
-      </c>
-      <c r="E47" t="s">
-        <v>224</v>
-      </c>
-      <c r="F47" t="s">
-        <v>223</v>
-      </c>
-      <c r="G47" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" t="s">
         <v>225</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>224</v>
+      </c>
+      <c r="D48" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" t="s">
+        <v>226</v>
+      </c>
+      <c r="F48" t="s">
         <v>227</v>
-      </c>
-      <c r="C48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D48" t="s">
-        <v>215</v>
-      </c>
-      <c r="E48" t="s">
-        <v>228</v>
-      </c>
-      <c r="F48" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" t="s">
+        <v>231</v>
+      </c>
+      <c r="G49" t="s">
         <v>230</v>
-      </c>
-      <c r="B49" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" t="s">
-        <v>235</v>
-      </c>
-      <c r="F49" t="s">
-        <v>233</v>
-      </c>
-      <c r="G49" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C51">
         <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F51" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
         <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E52" t="s">
+        <v>243</v>
+      </c>
+      <c r="F52" t="s">
         <v>244</v>
       </c>
-      <c r="E52" t="s">
-        <v>245</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>246</v>
-      </c>
-      <c r="G52" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
